--- a/LBD Deployment Helper - 7 Node.xlsx
+++ b/LBD Deployment Helper - 7 Node.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Clouse\OneDrive - mcaConnect, LLC\Personal\Github\LBD Helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan.Clouse\Downloads\LBDDeploymentHelper-master\LBDDeploymentHelper-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{214A0A41-9474-4E48-AE6A-47ED55DFCC9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BE0F7754-3DBE-416E-82E5-F1BAE2D9A3C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6692490-0F2A-41BF-85AF-B613915C14D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>DNS Name</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Where the Infrastructre scripts for VMs will be shared</t>
+  </si>
+  <si>
+    <t>AXDWAdmin</t>
+  </si>
+  <si>
+    <t>AXDWRuntimeuser</t>
   </si>
 </sst>
 </file>
@@ -322,10 +328,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -350,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0D7F908-2C25-4F90-9A36-C8D155B9A000}" name="Table33" displayName="Table33" ref="A15:D22" totalsRowShown="0">
-  <autoFilter ref="A15:D22" xr:uid="{BF04F5E9-3C99-4541-9919-797140278151}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0D7F908-2C25-4F90-9A36-C8D155B9A000}" name="Table33" displayName="Table33" ref="A15:D24" totalsRowShown="0">
+  <autoFilter ref="A15:D24" xr:uid="{BF04F5E9-3C99-4541-9919-797140278151}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EE2BE74B-2420-4E7C-BDA9-36D43EC5828F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7C1EE47B-4D2D-4032-94FC-2FC8F8187677}" name="Account Name" dataDxfId="0">
@@ -684,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A87E3A0-AE97-4BFF-831F-BBF3B46CBBC6}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,6 +1077,38 @@
       </c>
       <c r="D22" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>LEFT(A23,4) &amp; $G$2 &amp; MID(A23,5,10)</f>
+        <v>AXDWTESTAdmin</v>
+      </c>
+      <c r="C23" t="str">
+        <f xml:space="preserve"> LEFT(A23,4) &amp; $G$2 &amp; MID(A23,5,10)</f>
+        <v>AXDWTESTAdmin</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f>LEFT(A24,4) &amp; $G$2 &amp; MID(A24,5,11)</f>
+        <v>AXDWTESTRuntimeuser</v>
+      </c>
+      <c r="C24" t="str">
+        <f xml:space="preserve"> LEFT(A24,4) &amp; $G$2 &amp; MID(A24,5,11)</f>
+        <v>AXDWTESTRuntimeuser</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
